--- a/data/glycan-viewer-residues.xlsx
+++ b/data/glycan-viewer-residues.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Hex</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexose (Hex)</t>
+    <t xml:space="preserve">Hexose</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Man</t>
   </si>
   <si>
-    <t xml:space="preserve">Mannose (Man)</t>
+    <t xml:space="preserve">Mannose</t>
   </si>
   <si>
     <t xml:space="preserve">man.svg</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Gal</t>
   </si>
   <si>
-    <t xml:space="preserve">Galactose (Gal)</t>
+    <t xml:space="preserve">Galactose</t>
   </si>
   <si>
     <t xml:space="preserve">gal.svg</t>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Glc</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucose (Glc)</t>
+    <t xml:space="preserve">Glucose</t>
   </si>
   <si>
     <t xml:space="preserve">glc.svg</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">HexNAc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-acetyl Hexosamine (HexNAc)</t>
+    <t xml:space="preserve">N-acetyl Hexosamine</t>
   </si>
   <si>
     <t xml:space="preserve">hexnac.svg</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">ManNAc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-acetyl Mannosamine (ManNAc)</t>
+    <t xml:space="preserve">N-acetyl Mannosamine</t>
   </si>
   <si>
     <t xml:space="preserve">mannac.svg</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">GlcNAc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-acetly Glucosamine (GlcNAc)</t>
+    <t xml:space="preserve">N-acetly Glucosamine</t>
   </si>
   <si>
     <t xml:space="preserve">glcnac.svg</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">GalNAc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-acetyl Galactosamine (GalNAc)</t>
+    <t xml:space="preserve">N-acetyl Galactosamine</t>
   </si>
   <si>
     <t xml:space="preserve">galnac.svg</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">NeuAc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-acetyl Neuraminic acid (Neu5Ac)</t>
+    <t xml:space="preserve">N-acetyl Neuraminic acid</t>
   </si>
   <si>
     <t xml:space="preserve">neu5ac.svg</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">NeuGc</t>
   </si>
   <si>
-    <t xml:space="preserve">N-glycolyl Neuraminic acid (Neu5Gc)</t>
+    <t xml:space="preserve">N-glycolyl Neuraminic acid</t>
   </si>
   <si>
     <t xml:space="preserve">neu5gc.svg</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">Kdn</t>
   </si>
   <si>
-    <t xml:space="preserve">Ketodeoxynononic acid (KDN)</t>
+    <t xml:space="preserve">Keto-Deoxy-Nonulonic acid</t>
   </si>
   <si>
     <t xml:space="preserve">kdn.svg</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">dHex</t>
   </si>
   <si>
-    <t xml:space="preserve">deoxy Hexose (dHex)</t>
+    <t xml:space="preserve">deoxy Hexose</t>
   </si>
   <si>
     <t xml:space="preserve">dhex.svg</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Fuc</t>
   </si>
   <si>
-    <t xml:space="preserve">Fucose (Fuc)</t>
+    <t xml:space="preserve">Fucose</t>
   </si>
   <si>
     <t xml:space="preserve">fuc.svg</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">HexA</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexuronic acid (HexA)</t>
+    <t xml:space="preserve">Hexuronic acid</t>
   </si>
   <si>
     <t xml:space="preserve">hexa.svg</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">GlcA</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucuronic acid (GlcA)</t>
+    <t xml:space="preserve">Glucuronic acid</t>
   </si>
   <si>
     <t xml:space="preserve">glca.svg</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">GalA</t>
   </si>
   <si>
-    <t xml:space="preserve">Galacturonic acid (GalA)</t>
+    <t xml:space="preserve">Galacturonic acid</t>
   </si>
   <si>
     <t xml:space="preserve">gala.svg</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">IdoA</t>
   </si>
   <si>
-    <t xml:space="preserve">Iduronic acid (IdoA)</t>
+    <t xml:space="preserve">Iduronic acid</t>
   </si>
   <si>
     <t xml:space="preserve">idoa.svg</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">ManA</t>
   </si>
   <si>
-    <t xml:space="preserve">Mannuronic acid (ManA)</t>
+    <t xml:space="preserve">Mannuronic acid</t>
   </si>
   <si>
     <t xml:space="preserve">mana.svg</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">HexN</t>
   </si>
   <si>
-    <t xml:space="preserve">Hexosamine (HexN)</t>
+    <t xml:space="preserve">Hexosamine</t>
   </si>
   <si>
     <t xml:space="preserve">hexn.svg</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">GlcN</t>
   </si>
   <si>
-    <t xml:space="preserve">Glucosamine (GlcN)</t>
+    <t xml:space="preserve">Glucosamine</t>
   </si>
   <si>
     <t xml:space="preserve">glcn.svg</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve">GalN</t>
   </si>
   <si>
-    <t xml:space="preserve">Galactosamine (GalN)</t>
+    <t xml:space="preserve">Galactosamine</t>
   </si>
   <si>
     <t xml:space="preserve">galn.svg</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">ManN</t>
   </si>
   <si>
-    <t xml:space="preserve">Mannosamine (ManN)</t>
+    <t xml:space="preserve">Mannosamine</t>
   </si>
   <si>
     <t xml:space="preserve">mann.svg</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Pent</t>
   </si>
   <si>
-    <t xml:space="preserve">Pentose (Pent)</t>
+    <t xml:space="preserve">Pentose</t>
   </si>
   <si>
     <t xml:space="preserve">pent.svg</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Xyl</t>
   </si>
   <si>
-    <t xml:space="preserve">Xylose (Xyl)</t>
+    <t xml:space="preserve">Xylose</t>
   </si>
   <si>
     <t xml:space="preserve">xyl.svg</t>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,10 +600,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>206</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>18950</v>
       </c>
     </row>
@@ -664,7 +664,7 @@
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>6036</v>
       </c>
     </row>
@@ -684,7 +684,7 @@
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>5793</v>
       </c>
     </row>
@@ -701,7 +701,7 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>899</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>439281</v>
       </c>
     </row>
@@ -741,7 +741,7 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>439174</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>35717</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>906</v>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>439197</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>440001</v>
       </c>
     </row>
@@ -838,7 +838,7 @@
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="1" t="n">
         <v>13991616</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="F14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>840</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
       <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>17106</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
       <c r="F16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>104899</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="1" t="n">
         <v>94715</v>
       </c>
     </row>
@@ -939,7 +939,7 @@
       <c r="F18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="1" t="n">
         <v>439215</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
       <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="1" t="n">
         <v>441039</v>
       </c>
     </row>
@@ -979,7 +979,7 @@
       <c r="F20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="1" t="n">
         <v>439630</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
       <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="1" t="n">
         <v>739</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="1" t="n">
         <v>439213</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="1" t="n">
         <v>24154</v>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="1" t="n">
         <v>440049</v>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="1" t="n">
         <v>229</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="F26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>135191</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       <c r="F27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>1117</v>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       <c r="F28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="1" t="n">
         <v>1061</v>
       </c>
     </row>
